--- a/src/main/java/com/testdata/add to inventory.xlsx
+++ b/src/main/java/com/testdata/add to inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6ac218ac8a2581a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC10483CF15C4AF05ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78329359-214A-4E28-B143-C128731608DD}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10483CF15C4AF05ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B35028-E672-4FCD-9086-B9E69DD87379}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,24 +87,9 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Bedroom</t>
-  </si>
-  <si>
-    <t>MS-01</t>
-  </si>
-  <si>
-    <t>SkWoods</t>
-  </si>
-  <si>
     <t>teak-wood</t>
   </si>
   <si>
-    <t>illfordd</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>To Be Sold</t>
   </si>
   <si>
@@ -114,16 +99,31 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>10/20/2023</t>
-  </si>
-  <si>
     <t>SKDT</t>
   </si>
   <si>
-    <t>illfordd furniture</t>
-  </si>
-  <si>
-    <t>11A234GRS2</t>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>09/22/2023</t>
+  </si>
+  <si>
+    <t>11A234GRs5</t>
+  </si>
+  <si>
+    <t>office chair</t>
+  </si>
+  <si>
+    <t>bravo HB</t>
+  </si>
+  <si>
+    <t>stolia</t>
+  </si>
+  <si>
+    <t>stolia chair</t>
+  </si>
+  <si>
+    <t>chair</t>
   </si>
 </sst>
 </file>
@@ -203,6 +203,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,10 +475,13 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -538,66 +545,66 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <v>182.9</v>
-      </c>
       <c r="G2" s="2">
-        <v>35.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H2" s="2">
-        <v>61</v>
+        <v>45.5</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="N2" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O2" s="3">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="P2" s="2">
-        <v>68132</v>
+        <v>68156</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T2" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
